--- a/app/tables/Ethiopia_members/forms/Ethiopia_Section91_p2/Ethiopia_Section91_p2.xlsx
+++ b/app/tables/Ethiopia_members/forms/Ethiopia_Section91_p2/Ethiopia_Section91_p2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -217,18 +217,12 @@
     <t>injury_faced</t>
   </si>
   <si>
-    <t>What was the sickness/injury {{name}} faced?</t>
-  </si>
-  <si>
     <t>no_yes</t>
   </si>
   <si>
     <t>diagnosis</t>
   </si>
   <si>
-    <t>Did {{name}} receive a diagnosis for this condition?</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>days_absent</t>
   </si>
   <si>
-    <t>For how many days was {{name}} absent from usual activity due to the health problem during the last two months?</t>
-  </si>
-  <si>
     <t>display.hint</t>
   </si>
   <si>
@@ -503,6 +494,15 @@
   </si>
   <si>
     <t>Section 9.1</t>
+  </si>
+  <si>
+    <t>What was the sickness/injury {{data.name}} faced?</t>
+  </si>
+  <si>
+    <t>For how many days was {{data.name}} absent from usual activity due to the health problem during the last two months?</t>
+  </si>
+  <si>
+    <t>Did {{data.name}} receive a diagnosis for this condition?</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="30" customFormat="1">
       <c r="A1" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -1119,14 +1119,14 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1162,10 +1162,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="32" customFormat="1">
       <c r="A1" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1194,7 +1194,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -1202,35 +1202,35 @@
         <v>3</v>
       </c>
       <c r="E3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="C4" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="31" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="36" customFormat="1">
       <c r="A5" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="36" customFormat="1">
@@ -1238,18 +1238,18 @@
         <v>23</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="36" customFormat="1">
       <c r="A7" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1294,10 +1294,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="33" customFormat="1">
@@ -1305,10 +1305,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="33" customFormat="1">
@@ -1316,10 +1316,10 @@
         <v>62</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="33" customFormat="1">
@@ -1327,10 +1327,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1">
@@ -1338,10 +1338,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="33" customFormat="1">
@@ -1349,10 +1349,10 @@
         <v>62</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="33" customFormat="1">
@@ -1360,10 +1360,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="33" customFormat="1">
@@ -1371,10 +1371,10 @@
         <v>62</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="33" customFormat="1">
@@ -1382,10 +1382,10 @@
         <v>62</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="33" customFormat="1">
@@ -1393,10 +1393,10 @@
         <v>62</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="33" customFormat="1">
@@ -1404,131 +1404,131 @@
         <v>62</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="34" customFormat="1">
       <c r="A13" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="34" customFormat="1">
       <c r="A14" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="34" customFormat="1">
       <c r="A15" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="34" customFormat="1">
       <c r="A16" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="34" customFormat="1">
       <c r="A17" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="35" customFormat="1">
       <c r="A22" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="35" customFormat="1">
       <c r="A23" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1571,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1632,7 +1632,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>41</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>42</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>47</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>50</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>51</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>52</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>13</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>28</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>63</v>
@@ -1949,7 +1949,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="23"/>
       <c r="B33" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="23"/>
       <c r="B34" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
     <row r="35" spans="1:3">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>23</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>33</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>23</v>
@@ -2063,7 +2063,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>17</v>
@@ -2072,7 +2072,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>3</v>
@@ -2081,7 +2081,7 @@
     <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>17</v>
@@ -2090,7 +2090,7 @@
     <row r="48" spans="1:3">
       <c r="A48" s="9"/>
       <c r="B48" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
     <row r="49" spans="1:3">
       <c r="A49" s="9"/>
       <c r="B49" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>17</v>
@@ -2108,7 +2108,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="9"/>
       <c r="B50" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>17</v>
@@ -2117,7 +2117,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>17</v>
@@ -2126,7 +2126,7 @@
     <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
     <row r="53" spans="1:3">
       <c r="A53" s="9"/>
       <c r="B53" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>3</v>
@@ -2144,7 +2144,7 @@
     <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>17</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>23</v>
@@ -2164,7 +2164,7 @@
     <row r="56" spans="1:3">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>17</v>
@@ -2173,7 +2173,7 @@
     <row r="57" spans="1:3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>3</v>
@@ -2182,7 +2182,7 @@
     <row r="58" spans="1:3">
       <c r="A58" s="27"/>
       <c r="B58" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>17</v>
@@ -2191,7 +2191,7 @@
     <row r="59" spans="1:3">
       <c r="A59" s="27"/>
       <c r="B59" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>17</v>
@@ -2200,7 +2200,7 @@
     <row r="60" spans="1:3">
       <c r="A60" s="27"/>
       <c r="B60" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>3</v>
@@ -2209,7 +2209,7 @@
     <row r="61" spans="1:3">
       <c r="A61" s="27"/>
       <c r="B61" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>17</v>
@@ -2218,7 +2218,7 @@
     <row r="62" spans="1:3">
       <c r="A62" s="27"/>
       <c r="B62" s="28" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>17</v>
@@ -2227,7 +2227,7 @@
     <row r="63" spans="1:3">
       <c r="A63" s="27"/>
       <c r="B63" s="28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>3</v>
@@ -2236,7 +2236,7 @@
     <row r="64" spans="1:3">
       <c r="A64" s="27"/>
       <c r="B64" s="28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>17</v>
